--- a/biology/Zoologie/Galerie_des_Noctuidae/Galerie_des_Noctuidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Noctuidae/Galerie_des_Noctuidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Noctuidae.</t>
@@ -511,7 +523,9 @@
           <t>Abrostola</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Abrostola triplasia  (Linnaeus, 1758)
@@ -543,7 +557,9 @@
           <t>Achaea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Achaea janata (Linnaeus, 1758)
@@ -577,7 +593,9 @@
           <t>Acronicta</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Acronicta increta (Grote, 1882)
@@ -612,7 +630,9 @@
           <t>Aedia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aedia funesta (Esper, 1789)
@@ -645,7 +665,9 @@
           <t>Agrochola</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agrochola helvola
@@ -678,7 +700,9 @@
           <t>Agrotis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agrotis exclamationis  (Linnaeus, 1758)
@@ -711,7 +735,9 @@
           <t>Alophosoma</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Alophosoma emmelopis  (Turner, 1929)
@@ -743,7 +769,9 @@
           <t>Alypia</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Alypia octomaculata  (Fabricius, 1775)
@@ -775,7 +803,9 @@
           <t>Amphipoea</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Amphipoea fucosa  (Freyer, 1830)
@@ -808,7 +838,9 @@
           <t>Amphipyra</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Amphipyra pyramidea  (Linnaeus, 1758)
@@ -840,7 +872,9 @@
           <t>Anomis</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anomis flava  (Fabricius, 1775)
@@ -873,7 +907,9 @@
           <t>Apamea</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Apamea lithoxylaea  (Denis &amp; Schiffermüller, 1775)
@@ -906,7 +942,9 @@
           <t>Apina</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Apina callisto  (Angas, 1847)
@@ -938,7 +976,9 @@
           <t>Aporophyla</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aporophyla lutulenta  (Denis &amp; Schiffermüller, 1775)
@@ -970,7 +1010,9 @@
           <t>Atethmia</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Atethmia ambusta  (Denis &amp; Schiffermüller, 1775)
@@ -1002,7 +1044,9 @@
           <t>Australothis</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Australothis rubrescens  (Walker, 1858)
@@ -1034,7 +1078,9 @@
           <t>Autographa</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Autographa gamma  (Linnaeus, 1758)
@@ -1067,7 +1113,9 @@
           <t>Axylia</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Axylia putris  (Linnaeus, 1761)
@@ -1099,7 +1147,9 @@
           <t>Callistege</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callistege mi  (Clerc, 1759)
@@ -1131,7 +1181,9 @@
           <t>Calophasia</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Calophasia lunula  (Hufnagel, 1766)
@@ -1163,7 +1215,9 @@
           <t>Caradrina</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Caradrina clavipalpis  (Scopoli, 1763)
@@ -1195,7 +1249,9 @@
           <t>Chrysodeixis</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chrysodeixis subsidens  Walker, 1858
@@ -1229,7 +1285,9 @@
           <t>Colocasia</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colocasia coryli   (Linnaeus, 1758)
@@ -1261,7 +1319,9 @@
           <t>Conistra</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Conistra (Conistra) ligula   (Esper, 1791)
@@ -1293,7 +1353,9 @@
           <t>Cosmia</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cosmia trapezina   (Linnaeus, 1758)
@@ -1325,7 +1387,9 @@
           <t>Cryphia</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cryphia (Cryphia) algae   (Fabricius, 1775)
@@ -1360,7 +1424,9 @@
           <t>Cucullia</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cucullia lactucae   (Linnaeus, 1758)
@@ -1393,7 +1459,9 @@
           <t>Diachrysia</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Diachrysia chrysitis  (Linnaeus, 1758)
@@ -1425,7 +1493,9 @@
           <t>Diarsia</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Diarsia rubis  (Vieweg, 1790)
@@ -1457,7 +1527,9 @@
           <t>Dysgonia</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dysgonia algira  (Linnaeus, 1758)
@@ -1489,7 +1561,9 @@
           <t>Egone</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Egone atrisquamata  (Hampson, 1926)
@@ -1522,7 +1596,9 @@
           <t>Emmelia</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Emmelia trabealis   (Scopoli, 1763)
@@ -1554,7 +1630,9 @@
           <t>Euclidia</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Euclidia glyphica   (Linnaeus, 1758)
@@ -1586,7 +1664,9 @@
           <t>Eudocima</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eudocima materna   (Linnaeus, 1767)
@@ -1618,7 +1698,9 @@
           <t>Euplexia</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Euplexia lucipara   (Linnaeus, 1758)
@@ -1651,7 +1733,9 @@
           <t>Eupsilia</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eupsilia transversa   (Hufnagel, 1766)
@@ -1683,7 +1767,9 @@
           <t>Euxoa</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Euxoa (Euxoa) temera   (Hübner, 1808)
@@ -1715,7 +1801,9 @@
           <t>Hadula</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hadula (Calocestra) trifolii  (Hufnagel, 1766)
@@ -1747,7 +1835,9 @@
           <t>Hecatera</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hecatera dysodea  (Denis &amp; Schiffermüller, 1775)
@@ -1779,7 +1869,9 @@
           <t>Heliothis</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Heliothis viriplaca  (Hufnagel, 1766)
@@ -1811,7 +1903,9 @@
           <t>Herminia</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Herminia grisealis  (Denis &amp; Schiffermüller, 1775)
@@ -1844,7 +1938,9 @@
           <t>Hoplodrina</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hoplodrina blanda  (Denis &amp; Schiffermüller, 1775)
@@ -1876,7 +1972,9 @@
           <t>Hydraecia</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hydraecia micacea  (Esper, 1789)
@@ -1908,7 +2006,9 @@
           <t>Hypena</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hypena conscitalis
@@ -1942,7 +2042,9 @@
           <t>Ipimorpha</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ipimorpha subtusa  (Denis &amp; Schiffermüller, 1775)
@@ -1974,7 +2076,9 @@
           <t>Lacanobia</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lacanobia (Diataraxia) oleracea  (Linnaeus, 1758)
@@ -2006,7 +2110,9 @@
           <t>Leucania</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Leucania (Leucania) comma  (Linnaeus, 1761)
@@ -2039,7 +2145,9 @@
           <t>Lygephila</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lygephila pastinum  (Treitschke, 1826)
@@ -2071,7 +2179,9 @@
           <t>Macdunnoughia</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Macdunnoughia confusa  (Stephens, 1850)
@@ -2103,7 +2213,9 @@
           <t>Mamestra</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mamestra brassicae  (Linnaeus, 1758)
@@ -2135,7 +2247,9 @@
           <t>Melanchra</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Melanchra persicariae  (Linnaeus, 1761)
@@ -2167,7 +2281,9 @@
           <t>Mesapamea</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mesapamea spec
@@ -2199,7 +2315,9 @@
           <t>Mesoligia</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mesoligia furuncula  (Denis &amp; Schiffermüller, 1775)
@@ -2231,7 +2349,9 @@
           <t>Mocis</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mocis alterna  (Walker, 1858)
@@ -2266,7 +2386,9 @@
           <t>Mythimna</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mythimna (Hyphilare) albipuncta  (Denis &amp; Schiffermüller, 1775)
@@ -2301,7 +2423,9 @@
           <t>Neogalea</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Neogalea sunia  (Guénée, 1852)
@@ -2333,7 +2457,9 @@
           <t>Noctua</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Noctua comes  Hübner, 1813
@@ -2368,7 +2494,9 @@
           <t>Ochropleura</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ochropleura plecta  (Linnaeus, 1761)
@@ -2400,7 +2528,9 @@
           <t>Odice</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Odice jucunda  (Hübner, 1813)
@@ -2432,7 +2562,9 @@
           <t>Oligia</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Oligia fasciuncula  (Haworth, 1809)
@@ -2465,7 +2597,9 @@
           <t>Omphaloscelis</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Omphaloscelis lunosa  (Haworth, 1809)
@@ -2497,7 +2631,9 @@
           <t>Orthosia</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Orthosia (Monima) cerasi  (Fabricius, 1775)
@@ -2529,7 +2665,9 @@
           <t>Panolis</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Panolis flammea  (Denis &amp; Schiffermüller, 1775)
@@ -2561,7 +2699,9 @@
           <t>Phlogophora</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Phlogophora meticulosa  (Linnaeus, 1758)
@@ -2593,7 +2733,9 @@
           <t>Protodeltote</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Protodeltote pygarga  (Hufnagel, 1766)
@@ -2625,7 +2767,9 @@
           <t>Rivula</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rivula sericealis  (Scopoli, 1763)
@@ -2657,7 +2801,9 @@
           <t>Shargacucullia</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Shargacucullia verbasci  (Linnaeus, 1758)
@@ -2689,7 +2835,9 @@
           <t>Sideridis</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sideridis (Aneda) rivularis  (Fabricius, 1775)
@@ -2721,7 +2869,9 @@
           <t>Tholera</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tholera decimalis  (Poda, 1761)
@@ -2753,7 +2903,9 @@
           <t>Thysanoplusia</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Thysanoplusia daubei  (Boisduval, 1840)
@@ -2786,7 +2938,9 @@
           <t>Tyta</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tyta luctuosa  (Denis &amp; Schiffermüller, 1775)
@@ -2818,7 +2972,9 @@
           <t>Xestia</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Xestia (Megasema) c-nigrum  (Denis &amp; Schiffermüller, 1775)
@@ -2851,7 +3007,9 @@
           <t>Xylena</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Xylena exsoleta  (Linnaeus, 1758)
@@ -2883,7 +3041,9 @@
           <t>Zanclognatha</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Zanclognatha tarsipennalis  Treitschke, 1835
